--- a/uGrid/uGrid_Input.xlsx
+++ b/uGrid/uGrid_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phy\Documents\OnePower\Python Models Local Copy\uGrid-master-GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CD9CEA-B675-41FB-99EC-04D7A4CF5DC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FFA5B7-055B-494A-BC1D-A92FE2073C67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="4" xr2:uid="{68709F03-E2F0-4CA3-951F-ABB4DD9E87C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>maxGen</t>
   </si>
@@ -189,12 +189,6 @@
     <t>Cost_taxes</t>
   </si>
   <si>
-    <t>NOCT</t>
-  </si>
-  <si>
-    <t>Pmax_Tco</t>
-  </si>
-  <si>
     <t>smart</t>
   </si>
   <si>
@@ -204,15 +198,6 @@
     <t>Batt_Charge_Limit</t>
   </si>
   <si>
-    <t>lowlightcutoff</t>
-  </si>
-  <si>
-    <t>high_trip_perc</t>
-  </si>
-  <si>
-    <t>low_trip_perc</t>
-  </si>
-  <si>
     <t>tariff_hillclimb_multiplier</t>
   </si>
   <si>
@@ -246,9 +231,6 @@
     <t>eff_mpp</t>
   </si>
   <si>
-    <t>repeatabilityTest3</t>
-  </si>
-  <si>
     <t>f_inv</t>
   </si>
   <si>
@@ -279,9 +261,6 @@
     <t>range_limit</t>
   </si>
   <si>
-    <t>repeats</t>
-  </si>
-  <si>
     <t>lat_Generation</t>
   </si>
   <si>
@@ -304,6 +283,9 @@
   </si>
   <si>
     <t>prob_LV</t>
+  </si>
+  <si>
+    <t>alt_plot_test</t>
   </si>
 </sst>
 </file>
@@ -657,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810FAEA2-4EF8-4AD5-9CE0-4B60A3CE1971}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,7 +753,7 @@
         <v>0.95</v>
       </c>
       <c r="O2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -783,18 +765,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5ADBEA2-0E58-4F34-AFD4-59ED09832C5B}">
   <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -816,6 +804,9 @@
     <col min="34" max="34" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
@@ -928,13 +919,13 @@
         <v>50</v>
       </c>
       <c r="AK1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AL1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AM1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
@@ -1060,10 +1051,10 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="O3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1073,15 +1064,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B00D0BC-366A-4E86-BC5F-EB05356D5715}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1092,50 +1089,20 @@
         <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.4</v>
+        <v>1.2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D2">
-        <v>1.2</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>0.95</v>
-      </c>
-      <c r="H2">
-        <v>0.05</v>
-      </c>
-      <c r="I2">
         <v>0.08</v>
       </c>
     </row>
@@ -1148,7 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26A88A2-799B-4631-B6FE-A8330968DD02}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1156,37 +1123,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>65</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1231,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3256D70B-7508-42A8-AA62-A295C44165D1}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,54 +1212,57 @@
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1312,38 +1282,27 @@
         <v>500</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>-29.178957</v>
       </c>
       <c r="H2">
-        <v>-29.178957</v>
+        <v>27.590275999999999</v>
       </c>
       <c r="I2">
-        <v>27.590275999999999</v>
+        <v>0.34343958370448058</v>
       </c>
       <c r="J2">
-        <v>0.34343958370448058</v>
-      </c>
-      <c r="K2">
         <f>7*24</f>
         <v>168</v>
       </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
       <c r="L2">
-        <v>0.5</v>
-      </c>
-      <c r="M2">
         <f>7*24</f>
         <v>168</v>
       </c>
-      <c r="N2">
+      <c r="M2">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E3">
-        <v>85</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/uGrid/uGrid_Input.xlsx
+++ b/uGrid/uGrid_Input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="PSO" sheetId="1" state="visible" r:id="rId2"/>
@@ -1206,7 +1206,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1458,7 +1458,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="40.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
@@ -1606,7 +1606,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.28"/>
@@ -1751,11 +1751,11 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.8"/>
   </cols>
@@ -1931,13 +1931,6 @@
       </c>
       <c r="B8" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>69114.4743189538</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">F8</f>
-        <v>69114.4743189538</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
